--- a/Data/Output/Errors Found.xlsx
+++ b/Data/Output/Errors Found.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1171,7 +1171,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>06/08/2025</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
